--- a/Fase 1/DocumentosProyecto/Matriz EDT.xlsx
+++ b/Fase 1/DocumentosProyecto/Matriz EDT.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
   <si>
     <t>Matriz Estructura de descomposición de tareas EDT</t>
   </si>
@@ -217,52 +217,46 @@
     <t>Prog. Backend</t>
   </si>
   <si>
+    <t>TOTAL FASE PLANIFICACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALOR HORA HH </t>
+  </si>
+  <si>
+    <t>FASE DISEÑO</t>
+  </si>
+  <si>
+    <t>COSTO HH POR ROL</t>
+  </si>
+  <si>
+    <t>TOTAL FASE DISEÑO</t>
+  </si>
+  <si>
+    <t>TOTAL HH</t>
+  </si>
+  <si>
+    <t>FASE DESARROLLO</t>
+  </si>
+  <si>
+    <t>COSTO POR FASE</t>
+  </si>
+  <si>
+    <t>Fase de Análisis y Diseño</t>
+  </si>
+  <si>
     <t>QA</t>
   </si>
   <si>
     <t>Calidad Y Testing</t>
   </si>
   <si>
+    <t>Fase de QA</t>
+  </si>
+  <si>
     <t>DI</t>
   </si>
   <si>
     <t>Diseñador</t>
-  </si>
-  <si>
-    <t>TOTAL FASE PLANIFICACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALOR HORA HH </t>
-  </si>
-  <si>
-    <t>FASE DISEÑO</t>
-  </si>
-  <si>
-    <t>COSTO HH POR ROL</t>
-  </si>
-  <si>
-    <t>Analista Programador</t>
-  </si>
-  <si>
-    <t>Administrador BD</t>
-  </si>
-  <si>
-    <t>TOTAL FASE DISEÑO</t>
-  </si>
-  <si>
-    <t>TOTAL HH</t>
-  </si>
-  <si>
-    <t>FASE DESARROLLO</t>
-  </si>
-  <si>
-    <t>COSTO POR FASE</t>
-  </si>
-  <si>
-    <t>Fase de Análisis y Diseño</t>
-  </si>
-  <si>
-    <t>Fase de QA</t>
   </si>
   <si>
     <t>Fase de Implementación y Cierre</t>
@@ -370,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border/>
     <border>
       <left/>
@@ -464,33 +458,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -546,11 +518,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2554,9 +2524,9 @@
       <c r="H2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
@@ -2568,13 +2538,13 @@
       <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <v>9375.0</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <v>15.0</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="28">
         <f t="shared" ref="F3:F7" si="1">D3*E3</f>
         <v>140625</v>
       </c>
@@ -2601,13 +2571,13 @@
       <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>13750.0</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="27">
         <v>2.0</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="28">
         <f t="shared" si="1"/>
         <v>27500</v>
       </c>
@@ -2617,7 +2587,7 @@
       <c r="I4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="29">
         <v>4000.0</v>
       </c>
       <c r="K4" s="4">
@@ -2635,13 +2605,13 @@
       <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>7500.0</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="27">
         <v>2.0</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="28">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
@@ -2651,7 +2621,7 @@
       <c r="I5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="29">
         <v>5231.0</v>
       </c>
       <c r="K5" s="4">
@@ -2660,18 +2630,14 @@
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <v>0.0</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2681,7 +2647,7 @@
       <c r="I6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="29">
         <v>5231.0</v>
       </c>
       <c r="K6" s="4">
@@ -2690,24 +2656,18 @@
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="32">
+      <c r="E7" s="30">
         <v>0.0</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -2715,18 +2675,16 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="30">
+      <c r="F8" s="28">
         <f>SUM(F3:F7)</f>
         <v>183125</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -2744,18 +2702,18 @@
         <v>54</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="I11" s="27"/>
+        <v>69</v>
+      </c>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
@@ -2767,20 +2725,20 @@
       <c r="C12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="26">
         <v>9375.0</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="27">
         <v>10.0</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="28">
         <f t="shared" ref="F12:F16" si="3">D12*E12</f>
         <v>93750</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="28">
         <f t="shared" ref="I12:I16" si="4">F3+F12+F21+F30+F39</f>
         <v>1434375</v>
       </c>
@@ -2795,20 +2753,20 @@
       <c r="C13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="29">
         <v>13750.0</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="27">
         <v>17.0</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F13" s="28">
         <f t="shared" si="3"/>
         <v>233750</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="H13" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="28">
         <f t="shared" si="4"/>
         <v>3107500</v>
       </c>
@@ -2823,68 +2781,56 @@
       <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="29">
         <v>7500.0</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="27">
         <v>7.0</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="28">
         <f t="shared" si="3"/>
         <v>52500</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="30">
+      <c r="H14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="28">
         <f t="shared" si="4"/>
         <v>2047500</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="32">
+      <c r="E15" s="30">
         <v>0.0</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="30">
+      <c r="H15" s="4"/>
+      <c r="I15" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="32">
+      <c r="E16" s="30">
         <v>0.0</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="30">
+      <c r="H16" s="4"/>
+      <c r="I16" s="28">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2892,19 +2838,19 @@
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="30">
+      <c r="F17" s="28">
         <f>SUM(F12:F16)</f>
         <v>380000</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="34">
+      <c r="H17" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="32">
         <f>SUM(I12:I16)</f>
         <v>6589375</v>
       </c>
@@ -2922,18 +2868,18 @@
         <v>54</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
@@ -2945,20 +2891,20 @@
       <c r="C21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="26">
         <v>9375.0</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="27">
         <v>104.0</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="28">
         <f t="shared" ref="F21:F25" si="5">D21*E21</f>
         <v>975000</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="28">
         <f>F8</f>
         <v>183125</v>
       </c>
@@ -2973,20 +2919,20 @@
       <c r="C22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="29">
         <v>13750.0</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="27">
         <v>168.0</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="28">
         <f t="shared" si="5"/>
         <v>2310000</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="30">
+        <v>74</v>
+      </c>
+      <c r="I22" s="28">
         <f>F17</f>
         <v>380000</v>
       </c>
@@ -3001,68 +2947,68 @@
       <c r="C23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="29">
         <v>7500.0</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="27">
         <v>252.0</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="28">
         <f t="shared" si="5"/>
         <v>1890000</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="28">
         <f>F26</f>
         <v>5175000</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="32">
+      <c r="E24" s="30">
         <v>0.0</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="30">
+        <v>77</v>
+      </c>
+      <c r="I24" s="28">
         <f>F35</f>
         <v>481250</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="32">
+      <c r="E25" s="30">
         <v>0.0</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="28">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I25" s="30">
+        <v>80</v>
+      </c>
+      <c r="I25" s="28">
         <f>F44</f>
         <v>370000</v>
       </c>
@@ -3070,19 +3016,19 @@
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="30">
+      <c r="F26" s="28">
         <f>SUM(F21:F25)</f>
         <v>5175000</v>
       </c>
-      <c r="H26" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="34">
+      <c r="H26" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="32">
         <f>SUM(I21:I25)</f>
         <v>6589375</v>
       </c>
@@ -3100,18 +3046,18 @@
         <v>54</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="35">
+        <v>84</v>
+      </c>
+      <c r="I29" s="33">
         <v>0.6</v>
       </c>
     </row>
@@ -3125,20 +3071,20 @@
       <c r="C30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="26">
         <v>9375.0</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="27">
         <v>10.0</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="28">
         <f t="shared" ref="F30:F34" si="6">D30*E30</f>
         <v>93750</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="30">
+        <v>85</v>
+      </c>
+      <c r="I30" s="28">
         <f>I26*I29</f>
         <v>3953625</v>
       </c>
@@ -3153,20 +3099,20 @@
       <c r="C31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="29">
         <v>13750.0</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="27">
         <v>26.0</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="28">
         <f t="shared" si="6"/>
         <v>357500</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="30">
+        <v>86</v>
+      </c>
+      <c r="I31" s="28">
         <f>I26+I30</f>
         <v>10543000</v>
       </c>
@@ -3181,47 +3127,39 @@
       <c r="C32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="29">
         <v>7500.0</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="27">
         <v>4.0</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="28">
         <f t="shared" si="6"/>
         <v>30000</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="32">
+      <c r="E33" s="30">
         <v>0.0</v>
       </c>
-      <c r="F33" s="30">
+      <c r="F33" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="32">
+      <c r="E34" s="30">
         <v>0.0</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="28">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3229,12 +3167,12 @@
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="30">
+      <c r="F35" s="28">
         <f>SUM(F30:F34)</f>
         <v>481250</v>
       </c>
@@ -3252,13 +3190,13 @@
         <v>54</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
@@ -3271,13 +3209,13 @@
       <c r="C39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="26">
         <v>9375.0</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="27">
         <v>14.0</v>
       </c>
-      <c r="F39" s="30">
+      <c r="F39" s="28">
         <f t="shared" ref="F39:F43" si="7">D39*E39</f>
         <v>131250</v>
       </c>
@@ -3292,13 +3230,13 @@
       <c r="C40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="29">
         <v>13750.0</v>
       </c>
-      <c r="E40" s="29">
+      <c r="E40" s="27">
         <v>13.0</v>
       </c>
-      <c r="F40" s="30">
+      <c r="F40" s="28">
         <f t="shared" si="7"/>
         <v>178750</v>
       </c>
@@ -3313,47 +3251,39 @@
       <c r="C41" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="29">
         <v>7500.0</v>
       </c>
-      <c r="E41" s="29">
+      <c r="E41" s="27">
         <v>8.0</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F41" s="28">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="32">
+      <c r="E42" s="30">
         <v>0.0</v>
       </c>
-      <c r="F42" s="30">
+      <c r="F42" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="32">
+      <c r="E43" s="30">
         <v>0.0</v>
       </c>
-      <c r="F43" s="30">
+      <c r="F43" s="28">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3361,12 +3291,12 @@
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="30">
+      <c r="F44" s="28">
         <f>SUM(F39:F43)</f>
         <v>370000</v>
       </c>

--- a/Fase 1/DocumentosProyecto/Matriz EDT.xlsx
+++ b/Fase 1/DocumentosProyecto/Matriz EDT.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="xW4KoR9X7vEnrp6R9AmRKyKZbcVlGPUG0fxN321E88E="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="tLwSkNt0RBB+iVW9VxLLyusVl4GxPEEOAQV2uizeMGg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
   <si>
     <t>Matriz Estructura de descomposición de tareas EDT</t>
   </si>
@@ -109,7 +109,13 @@
     <t xml:space="preserve">Creacion de los script de consultas PL/SQL </t>
   </si>
   <si>
-    <t>Desarrollo del Módulo de Exámenes</t>
+    <t>Desarrollo del Módulo de Cursos (Ambas aplicaciones)</t>
+  </si>
+  <si>
+    <t>Desarrollo del Módulo de Registro (Ambas aplicaciones)</t>
+  </si>
+  <si>
+    <t>Desarrollo del Módulo de Exámenes (Ambas aplicaciones)</t>
   </si>
   <si>
     <t>Desarrollo del Módulo de Estudiantes</t>
@@ -118,18 +124,18 @@
     <t>Desarrollo del Módulo del Administrador</t>
   </si>
   <si>
-    <t>Desarrollo del Módulo de Reportes</t>
+    <t>Desarrollo del Módulo de Calificaciones</t>
+  </si>
+  <si>
+    <t>Desarrollo de Módulos de generación de documentos (Ambas aplicaciones)</t>
+  </si>
+  <si>
+    <t>Desarrollo de cálculos automatizados de calificación y progreso</t>
   </si>
   <si>
     <t>Encriptación de contraseñas</t>
   </si>
   <si>
-    <t>Desarrollo de la Página Web Principal (Instructores/Admin)</t>
-  </si>
-  <si>
-    <t>Desarrollo de la Página Web Secundaria (Estudiantes)</t>
-  </si>
-  <si>
     <t>Integración de ambas plataformas (Instructores/Admin y Estudiantes)</t>
   </si>
   <si>
@@ -137,6 +143,9 @@
   </si>
   <si>
     <t>Implementación de Notificaciones</t>
+  </si>
+  <si>
+    <t>Recuperación de contraseña</t>
   </si>
   <si>
     <t>Optimización de la Accesibilidad y Compatibilidad en Móviles</t>
@@ -462,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -502,6 +511,9 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -755,15 +767,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0" outlineLevelRow="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="64.86"/>
+    <col customWidth="1" min="1" max="1" width="68.57"/>
     <col customWidth="1" min="2" max="2" width="7.43"/>
     <col customWidth="1" min="3" max="3" width="17.57"/>
     <col customWidth="1" min="4" max="4" width="21.43"/>
     <col customWidth="1" min="5" max="5" width="28.29"/>
-    <col customWidth="1" min="6" max="6" width="5.0"/>
-    <col customWidth="1" min="7" max="7" width="23.29"/>
-    <col customWidth="1" min="8" max="8" width="29.71"/>
-    <col customWidth="1" min="9" max="24" width="10.71"/>
+    <col customWidth="1" min="6" max="6" width="11.43"/>
+    <col customWidth="1" min="7" max="7" width="17.71"/>
+    <col customWidth="1" min="8" max="8" width="20.57"/>
+    <col customWidth="1" min="9" max="9" width="10.14"/>
+    <col customWidth="1" min="10" max="24" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -1103,50 +1116,50 @@
         <v>30</v>
       </c>
       <c r="B22" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="16">
         <v>4.0</v>
       </c>
-      <c r="C22" s="16">
-        <v>8.0</v>
-      </c>
       <c r="D22" s="16">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E22" s="16">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="23" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A23" s="20" t="s">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="23" outlineLevel="1">
+      <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="15">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C23" s="16">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="D23" s="16">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E23" s="16">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="24" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A24" s="19" t="s">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="24" outlineLevel="1">
+      <c r="A24" s="20" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="15">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C24" s="16">
         <v>8.0</v>
       </c>
       <c r="D24" s="16">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="16">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="25" ht="18.0" customHeight="1" outlineLevel="1">
@@ -1160,31 +1173,31 @@
         <v>8.0</v>
       </c>
       <c r="D25" s="16">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="E25" s="16">
         <v>24.0</v>
       </c>
     </row>
     <row r="26" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="20" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="15">
         <v>2.0</v>
       </c>
       <c r="C26" s="16">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="D26" s="16">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E26" s="16">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="27" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="22" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="15">
@@ -1194,337 +1207,385 @@
         <v>8.0</v>
       </c>
       <c r="D27" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E27" s="16">
         <v>24.0</v>
       </c>
-      <c r="E27" s="16">
-        <v>16.0</v>
-      </c>
     </row>
     <row r="28" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="15">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C28" s="16">
         <v>8.0</v>
       </c>
       <c r="D28" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="29" ht="18.0" customHeight="1" outlineLevel="1">
+      <c r="A29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="30" ht="18.0" customHeight="1" outlineLevel="1">
+      <c r="A30" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="31" ht="18.0" customHeight="1" outlineLevel="1">
+      <c r="A31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3.0</v>
+      </c>
+      <c r="C31" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>8.0</v>
+      </c>
+      <c r="E31" s="16">
         <v>24.0</v>
       </c>
-      <c r="E28" s="16">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="29" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="15">
+    </row>
+    <row r="32" ht="18.0" customHeight="1" outlineLevel="1">
+      <c r="A32" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="15">
         <v>3.0</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C32" s="16">
         <v>8.0</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D32" s="16">
         <v>8.0</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E32" s="16">
         <v>24.0</v>
       </c>
     </row>
-    <row r="30" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A30" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="15">
-        <v>3.0</v>
-      </c>
-      <c r="C30" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="D30" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="E30" s="16">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="31" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A31" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C31" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="D31" s="16">
-        <v>12.0</v>
-      </c>
-      <c r="E31" s="16">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="32" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A32" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="15">
-        <v>2.0</v>
-      </c>
-      <c r="C32" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="D32" s="16">
-        <v>16.0</v>
-      </c>
-      <c r="E32" s="16">
-        <v>4.0</v>
-      </c>
-    </row>
     <row r="33" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="15">
         <v>2.0</v>
       </c>
       <c r="C33" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>12.0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="34" ht="18.0" customHeight="1" outlineLevel="1">
+      <c r="A34" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="C34" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="D34" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="35" ht="18.0" customHeight="1" outlineLevel="1">
+      <c r="A35" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="C35" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="D35" s="16">
+        <v>16.0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="36" ht="18.0" customHeight="1" outlineLevel="1">
+      <c r="A36" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="C36" s="16">
         <v>8.0</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D36" s="16">
         <v>16.0</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E36" s="16">
         <v>0.0</v>
       </c>
     </row>
-    <row r="34" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A34" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="15">
+    <row r="37" ht="18.0" customHeight="1" outlineLevel="1">
+      <c r="A37" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="15">
         <v>2.0</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C37" s="16">
         <v>8.0</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D37" s="16">
         <v>16.0</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E37" s="16">
         <v>8.0</v>
       </c>
     </row>
-    <row r="35" ht="18.0" customHeight="1" outlineLevel="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5">
-        <f t="shared" ref="C35:E35" si="3">SUM(C19:C34)</f>
-        <v>104</v>
-      </c>
-      <c r="D35" s="5">
+    <row r="38" ht="18.0" customHeight="1" outlineLevel="1">
+      <c r="A38" s="23"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5">
+        <f t="shared" ref="C38:E38" si="3">SUM(C19:C37)</f>
+        <v>114</v>
+      </c>
+      <c r="D38" s="5">
         <f t="shared" si="3"/>
-        <v>168</v>
-      </c>
-      <c r="E35" s="5">
+        <v>170</v>
+      </c>
+      <c r="E38" s="5">
         <f t="shared" si="3"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="A39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="15">
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="A40" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="15">
         <v>1.0</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C40" s="16">
         <v>5.0</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D40" s="16">
         <v>6.0</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E40" s="16">
         <v>4.0</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A38" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="15">
+    <row r="41" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A41" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="15">
         <v>2.0</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C41" s="16">
         <v>2.0</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D41" s="16">
         <v>10.0</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E41" s="16">
         <v>0.0</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A39" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="15">
+    <row r="42" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A42" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="15">
         <v>2.0</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C42" s="16">
         <v>3.0</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D42" s="16">
         <v>10.0</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E42" s="16">
         <v>0.0</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5">
-        <f t="shared" ref="C40:E40" si="4">SUM(C37:C39)</f>
+    <row r="43" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5">
+        <f t="shared" ref="C43:E43" si="4">SUM(C40:C42)</f>
         <v>10</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D43" s="5">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E43" s="5">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A41" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11" t="s">
+    <row r="44" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D44" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="C42" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="D42" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="E42" s="16">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A43" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="C43" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="D43" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="E43" s="16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A44" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="C44" s="16">
-        <v>2.0</v>
-      </c>
-      <c r="D44" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="E44" s="16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A45" s="23" t="s">
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="15">
         <v>1.0</v>
       </c>
       <c r="C45" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="D45" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="E45" s="16">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A46" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="D46" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A47" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="C47" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A48" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="C48" s="16">
         <v>5.0</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D48" s="16">
         <v>0.0</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E48" s="16">
         <v>0.0</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" outlineLevel="1">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5">
-        <f t="shared" ref="C46:E46" si="5">SUM(C42:C45)</f>
+    <row r="49" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5">
+        <f t="shared" ref="C49:E49" si="5">SUM(C45:C48)</f>
         <v>14</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D49" s="5">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E49" s="5">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
-      <c r="B47" s="24">
-        <f>SUM(B6:B46)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1">
+      <c r="B50" s="25">
+        <f>SUM(B6:B49)</f>
+        <v>61</v>
+      </c>
+    </row>
     <row r="51" ht="14.25" customHeight="1"/>
     <row r="52" ht="14.25" customHeight="1"/>
     <row r="53" ht="14.25" customHeight="1"/>
@@ -2464,6 +2525,9 @@
     <row r="987" ht="14.25" customHeight="1"/>
     <row r="988" ht="14.25" customHeight="1"/>
     <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:D2"/>
@@ -2504,25 +2568,25 @@
     <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -2530,7 +2594,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -2538,46 +2602,46 @@
       <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="27">
         <v>9375.0</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="28">
         <v>15.0</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="29">
         <f t="shared" ref="F3:F7" si="1">D3*E3</f>
         <v>140625</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="30">
         <v>13750.0</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="28">
         <v>2.0</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="29">
         <f t="shared" si="1"/>
         <v>27500</v>
       </c>
@@ -2587,7 +2651,7 @@
       <c r="I4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="30">
         <v>4000.0</v>
       </c>
       <c r="K4" s="4">
@@ -2597,31 +2661,31 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="30">
         <v>7500.0</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="28">
         <v>2.0</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="29">
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="30">
         <v>5231.0</v>
       </c>
       <c r="K5" s="4">
@@ -2634,20 +2698,20 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="30">
+      <c r="E6" s="31">
         <v>0.0</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="30">
         <v>5231.0</v>
       </c>
       <c r="K6" s="4">
@@ -2660,10 +2724,10 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="30">
+      <c r="E7" s="31">
         <v>0.0</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2675,12 +2739,12 @@
     <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="28">
+      <c r="F8" s="29">
         <f>SUM(F3:F7)</f>
         <v>183125</v>
       </c>
@@ -2693,31 +2757,31 @@
     <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="I11" s="8"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
@@ -2725,78 +2789,78 @@
       <c r="C12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="27">
         <v>9375.0</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="28">
         <v>10.0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="29">
         <f t="shared" ref="F12:F16" si="3">D12*E12</f>
         <v>93750</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="29">
         <f t="shared" ref="I12:I16" si="4">F3+F12+F21+F30+F39</f>
-        <v>1434375</v>
+        <v>1528125</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="30">
         <v>13750.0</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="28">
         <v>17.0</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="29">
         <f t="shared" si="3"/>
         <v>233750</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="28">
+        <v>66</v>
+      </c>
+      <c r="I13" s="29">
         <f t="shared" si="4"/>
-        <v>3107500</v>
+        <v>3135000</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="30">
         <v>7500.0</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="28">
         <v>7.0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="29">
         <f t="shared" si="3"/>
         <v>52500</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="28">
+        <v>68</v>
+      </c>
+      <c r="I14" s="29">
         <f t="shared" si="4"/>
-        <v>2047500</v>
+        <v>2317500</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
@@ -2804,15 +2868,15 @@
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="30">
+      <c r="E15" s="31">
         <v>0.0</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="28">
+      <c r="I15" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2822,15 +2886,15 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="30">
+      <c r="E16" s="31">
         <v>0.0</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="28">
+      <c r="I16" s="29">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -2838,52 +2902,52 @@
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="28">
+      <c r="F17" s="29">
         <f>SUM(F12:F16)</f>
         <v>380000</v>
       </c>
-      <c r="H17" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="32">
+      <c r="H17" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="33">
         <f>SUM(I12:I16)</f>
-        <v>6589375</v>
+        <v>6980625</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>6</v>
@@ -2891,124 +2955,124 @@
       <c r="C21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="27">
         <v>9375.0</v>
       </c>
-      <c r="E21" s="27">
-        <v>104.0</v>
-      </c>
-      <c r="F21" s="28">
+      <c r="E21" s="28">
+        <v>114.0</v>
+      </c>
+      <c r="F21" s="29">
         <f t="shared" ref="F21:F25" si="5">D21*E21</f>
-        <v>975000</v>
+        <v>1068750</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="29">
         <f>F8</f>
         <v>183125</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="30">
         <v>13750.0</v>
       </c>
-      <c r="E22" s="27">
-        <v>168.0</v>
-      </c>
-      <c r="F22" s="28">
+      <c r="E22" s="28">
+        <v>170.0</v>
+      </c>
+      <c r="F22" s="29">
         <f t="shared" si="5"/>
-        <v>2310000</v>
+        <v>2337500</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="28">
+        <v>77</v>
+      </c>
+      <c r="I22" s="29">
         <f>F17</f>
         <v>380000</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="30">
         <v>7500.0</v>
       </c>
-      <c r="E23" s="27">
-        <v>252.0</v>
-      </c>
-      <c r="F23" s="28">
+      <c r="E23" s="28">
+        <v>288.0</v>
+      </c>
+      <c r="F23" s="29">
         <f t="shared" si="5"/>
-        <v>1890000</v>
+        <v>2160000</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="29">
         <f>F26</f>
-        <v>5175000</v>
+        <v>5566250</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="30">
+      <c r="E24" s="31">
         <v>0.0</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="28">
+        <v>80</v>
+      </c>
+      <c r="I24" s="29">
         <f>F35</f>
         <v>481250</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="30">
+      <c r="E25" s="31">
         <v>0.0</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" s="28">
+        <v>83</v>
+      </c>
+      <c r="I25" s="29">
         <f>F44</f>
         <v>370000</v>
       </c>
@@ -3016,54 +3080,54 @@
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="28">
+      <c r="F26" s="29">
         <f>SUM(F21:F25)</f>
-        <v>5175000</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="32">
+        <v>5566250</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="33">
         <f>SUM(I21:I25)</f>
-        <v>6589375</v>
+        <v>6980625</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1"/>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="33">
+        <v>87</v>
+      </c>
+      <c r="I29" s="34">
         <v>0.6</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>6</v>
@@ -3071,69 +3135,69 @@
       <c r="C30" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="27">
         <v>9375.0</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="28">
         <v>10.0</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="29">
         <f t="shared" ref="F30:F34" si="6">D30*E30</f>
         <v>93750</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I30" s="28">
+        <v>88</v>
+      </c>
+      <c r="I30" s="29">
         <f>I26*I29</f>
-        <v>3953625</v>
+        <v>4188375</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="30">
         <v>13750.0</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="28">
         <v>26.0</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="29">
         <f t="shared" si="6"/>
         <v>357500</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" s="28">
+        <v>89</v>
+      </c>
+      <c r="I31" s="29">
         <f>I26+I30</f>
-        <v>10543000</v>
+        <v>11169000</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="30">
         <v>7500.0</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="28">
         <v>4.0</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="29">
         <f t="shared" si="6"/>
         <v>30000</v>
       </c>
@@ -3143,10 +3207,10 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="30">
+      <c r="E33" s="31">
         <v>0.0</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3156,10 +3220,10 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="30">
+      <c r="E34" s="31">
         <v>0.0</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="29">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -3167,12 +3231,12 @@
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="4"/>
       <c r="B35" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="28">
+      <c r="F35" s="29">
         <f>SUM(F30:F34)</f>
         <v>481250</v>
       </c>
@@ -3181,27 +3245,27 @@
     <row r="37" ht="14.25" customHeight="1"/>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>6</v>
@@ -3209,55 +3273,55 @@
       <c r="C39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="26">
+      <c r="D39" s="27">
         <v>9375.0</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="28">
         <v>14.0</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="29">
         <f t="shared" ref="F39:F43" si="7">D39*E39</f>
         <v>131250</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="30">
         <v>13750.0</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="28">
         <v>13.0</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="29">
         <f t="shared" si="7"/>
         <v>178750</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="30">
         <v>7500.0</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="28">
         <v>8.0</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="29">
         <f t="shared" si="7"/>
         <v>60000</v>
       </c>
@@ -3267,10 +3331,10 @@
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="30">
+      <c r="E42" s="31">
         <v>0.0</v>
       </c>
-      <c r="F42" s="28">
+      <c r="F42" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3280,10 +3344,10 @@
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="30">
+      <c r="E43" s="31">
         <v>0.0</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="29">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3291,12 +3355,12 @@
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="4"/>
       <c r="B44" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="28">
+      <c r="F44" s="29">
         <f>SUM(F39:F43)</f>
         <v>370000</v>
       </c>
